--- a/biology/Zoologie/Callicore_excelsior/Callicore_excelsior.xlsx
+++ b/biology/Zoologie/Callicore_excelsior/Callicore_excelsior.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callicore excelsior est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Biblidinae et du genre Callicore.
 </t>
@@ -511,16 +523,88 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Callicore excelsior a été décrit par William Chapman Hewitson en 1857 sous le nom initial de Catagramma excelsior[1].
-Noms vernaculaires
- Callicore excelsior se nomme Superb Numberwing en anglais[2].
-Sous-espèces
- Callicore excelsior excelsior, présent au Brésil.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore excelsior a été décrit par William Chapman Hewitson en 1857 sous le nom initial de Catagramma excelsior.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore excelsior se nomme Superb Numberwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore excelsior excelsior, présent au Brésil.
  Callicore excelsior arirambae (Ducke, 1913); présent au Brésil.
  Callicore excelsior elatior (Oberthür, 1916); présent en Équateur
- Callicore excelsior excelsissima (Staudinger, [1885]); présent au Brésil.
+ Callicore excelsior excelsissima (Staudinger, ); présent au Brésil.
  Callicore excelsior inferior (Butler, 1877); présent en Équateur et au Pérou.
  Callicore excelsior marisolae Neukirchen, 1995; présent au Brésil.
  Callicore excelsior mauensis (Fassl, 1922); présent au Brésil.
@@ -528,70 +612,7 @@
  Callicore excelsior micheneri (Dillon, 1948); présent en Colombie et en Équateur.
  Callicore excelsior ockendeni (Oberthür, 1916); présent au Pérou.
  Callicore excelsior pastazza (Staudinger, 1886)); présent au Pérou.
- Callicore excelsior splendida (Weymer, 1890); présent au Pérou[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Callicore_excelsior</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Callicore excelsior est un papillon d'une envergure d'environ 64 mm, au dessus de couleur noire avec aux ailes antérieures une très large bande jaune partant de la base du bord costal et allant rejoindre l'angle externe et aux ailes postérieures une flaque bleue proche du bord costal sur ses 2/3 à partir de l'angle anal[3].
-Le revers des ailes antérieures présente la même très large bande jaune que le dessus alors que les ailes postérieures sont ornementées de rayures beige dont une submarginale bleue doublée d'une ligne de marques bleues et une ligne beige limitant une plage séparée en deux et pupillé de bleu.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Callicore_excelsior</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie est mal connue[2].
-</t>
+ Callicore excelsior splendida (Weymer, 1890); présent au Pérou.</t>
         </is>
       </c>
     </row>
@@ -616,18 +637,157 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Callicore excelsior est un papillon d'une envergure d'environ 64 mm, au dessus de couleur noire avec aux ailes antérieures une très large bande jaune partant de la base du bord costal et allant rejoindre l'angle externe et aux ailes postérieures une flaque bleue proche du bord costal sur ses 2/3 à partir de l'angle anal.
+Le revers des ailes antérieures présente la même très large bande jaune que le dessus alors que les ailes postérieures sont ornementées de rayures beige dont une submarginale bleue doublée d'une ligne de marques bleues et une ligne beige limitant une plage séparée en deux et pupillé de bleu.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie est mal connue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Callicore excelsior est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie, en Équateur et au Pérou[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore excelsior est présent au Mexique, au Costa Rica, au Guatemala, à Panama, en Colombie, en Équateur et au Pérou.
 Sur les autres projets Wikimedia :
 Callicore excelsior, sur Wikimedia CommonsCallicore excelsior, sur Wikispecies
-Biotope
- Callicore excelsior réside dans la forêt tropicale humide du côté est des Andes[2].
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Callicore excelsior réside dans la forêt tropicale humide du côté est des Andes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callicore_excelsior</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
